--- a/SeedFile.xlsx
+++ b/SeedFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\@ GUSTO B.Sc Data\Advanced Concepts In Web Production\@Assignment\Implementation\auctions.lunasnow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBB9C82-68DD-49F2-A0F5-D45A0688EB80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E899AE-36C5-4BA5-BAA9-82353EF6A69C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="507">
   <si>
     <t>KACHIN</t>
   </si>
@@ -1928,7 +1928,7 @@
   <dimension ref="A1:V413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,16 +2001,16 @@
         <v>3</v>
       </c>
       <c r="F2" s="3">
-        <v>100000000</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>100000000</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>100000000</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>100000000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
